--- a/coding/python/AI/apartment.xlsx
+++ b/coding/python/AI/apartment.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10520"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/muncheolhyeon/lang-study/coding/python/AI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F2CE46-8392-DA4C-863D-C5DD73FF9FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4DAF4E1-20AC-6B46-9F0D-1304174B0664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet2!$A$1:$A$509</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet3!$B$2:$B$1048187</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet3!$B$1:$B$1048186</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="277">
   <si>
     <t>개포래미안포레스트 130동</t>
   </si>
@@ -2618,14 +2618,6 @@
   </si>
   <si>
     <t>매매27억~28억</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>area</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>price</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -6719,20 +6711,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B120"/>
+  <dimension ref="A1:B119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B1" t="s">
-        <v>278</v>
+      <c r="A1">
+        <v>84</v>
+      </c>
+      <c r="B1">
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -6740,79 +6732,79 @@
         <v>84</v>
       </c>
       <c r="B2">
-        <v>27</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B3">
-        <v>27.5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="B4">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="B5">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="B6">
-        <v>27</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="B7">
-        <v>19.5</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B8">
-        <v>26.5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="B9">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B10">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B11">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -6820,23 +6812,23 @@
         <v>59</v>
       </c>
       <c r="B12">
-        <v>22</v>
+        <v>19.3</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="B13">
-        <v>19.3</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="B14">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -6844,23 +6836,23 @@
         <v>59</v>
       </c>
       <c r="B15">
-        <v>19</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="B16">
-        <v>19.5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="B17">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -6868,31 +6860,31 @@
         <v>59</v>
       </c>
       <c r="B18">
-        <v>21</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="B19">
-        <v>19.5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="B20">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="B21">
-        <v>18</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -6900,39 +6892,39 @@
         <v>84</v>
       </c>
       <c r="B22">
-        <v>27.5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="B23">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="B24">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="B25">
-        <v>32</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="B26">
-        <v>19.8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -6940,79 +6932,79 @@
         <v>74</v>
       </c>
       <c r="B27">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="B28">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="B29">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="B30">
-        <v>31</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B31">
-        <v>23.5</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="B32">
-        <v>26.5</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="B33">
-        <v>19.5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="B34">
-        <v>27</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="B35">
-        <v>19.5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="B36">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -7020,7 +7012,7 @@
         <v>59</v>
       </c>
       <c r="B37">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -7028,71 +7020,71 @@
         <v>59</v>
       </c>
       <c r="B38">
-        <v>19</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="B39">
-        <v>19.5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="B40">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="B41">
-        <v>28</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B42">
-        <v>19.8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="B43">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B44">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="B45">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="B46">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -7100,23 +7092,23 @@
         <v>84</v>
       </c>
       <c r="B47">
-        <v>27</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="B48">
-        <v>26.5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="B49">
-        <v>34</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -7124,7 +7116,7 @@
         <v>59</v>
       </c>
       <c r="B50">
-        <v>19.5</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -7132,47 +7124,47 @@
         <v>59</v>
       </c>
       <c r="B51">
-        <v>19.8</v>
+        <v>19.3</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B52">
-        <v>19.3</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="B54">
-        <v>19.5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="B55">
-        <v>26</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B56">
-        <v>32.5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -7185,42 +7177,42 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>32</v>
+        <v>19.899999999999999</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="B59">
-        <v>19.899999999999999</v>
+        <v>31</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="B60">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="B61">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="B62">
-        <v>33</v>
+        <v>19.3</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -7228,103 +7220,103 @@
         <v>59</v>
       </c>
       <c r="B63">
-        <v>19.3</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="B64">
-        <v>19.5</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="B65">
-        <v>30.5</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B66">
-        <v>23.5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="B67">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="B68">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="B69">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="B70">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B72">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="B73">
-        <v>27</v>
+        <v>19.7</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="B74">
-        <v>19.7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="B75">
-        <v>27</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -7332,47 +7324,47 @@
         <v>49</v>
       </c>
       <c r="B76">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77">
-        <v>49</v>
+        <v>102</v>
       </c>
       <c r="B77">
-        <v>17.8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="B79">
-        <v>27</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>19.5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="B81">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -7380,55 +7372,55 @@
         <v>59</v>
       </c>
       <c r="B82">
-        <v>20</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>19.5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="B84">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="B85">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="B86">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="B87">
-        <v>24</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="B88">
-        <v>19.8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -7436,7 +7428,7 @@
         <v>84</v>
       </c>
       <c r="B89">
-        <v>28</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -7444,135 +7436,135 @@
         <v>84</v>
       </c>
       <c r="B90">
-        <v>26.5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="B92">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="B93">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="B94">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="B95">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="B96">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="B98">
-        <v>34</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B99">
-        <v>23.5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B100">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="B101">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="B102">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="B103">
-        <v>23</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="B104">
-        <v>19.5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="B105">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="B106">
-        <v>26</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -7580,7 +7572,7 @@
         <v>59</v>
       </c>
       <c r="B107">
-        <v>19.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -7588,39 +7580,39 @@
         <v>59</v>
       </c>
       <c r="B108">
-        <v>20</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="B109">
-        <v>19.5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="B110">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B111">
-        <v>19</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B112">
-        <v>21.5</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -7628,62 +7620,54 @@
         <v>59</v>
       </c>
       <c r="B113">
-        <v>19.5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B114">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="B115">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B116">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B117">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="B118">
-        <v>26</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="B119">
-        <v>19.5</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
-      <c r="A120">
-        <v>102</v>
-      </c>
-      <c r="B120">
         <v>31.5</v>
       </c>
     </row>
